--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E537B0-B8F4-40C4-ADCD-581893AB9049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="BagItem" sheetId="1" r:id="rId1"/>
@@ -20,68 +14,74 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
+    <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{19AB833B-88DF-4903-9554-A1AC01AD4DAB}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>id</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{01BB6240-B633-4C4D-9265-167C962A9BBE}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{53F07C9F-91AD-4D02-8E0B-BB7E197F72D6}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>类型</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0CFB2CAD-8212-4BB0-8C01-A2A486CB23AB}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>描述</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基础价格，会根据当天倍率进行浮动</t>
         </r>
       </text>
     </comment>
@@ -90,47 +90,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Content</t>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Price</t>
   </si>
   <si>
     <t>木头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基础建筑材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
   </si>
   <si>
     <t>进阶建筑材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>粮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>砖</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,37 +150,358 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,9 +509,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -187,34 +761,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="8" name="Content"/>
+    <tableColumn id="4" name="Price"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,54 +1091,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -530,29 +1155,86 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246551D-7D68-4319-A5B5-7E38EE476FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="BagItem" sheetId="1" r:id="rId1"/>
@@ -20,76 +14,71 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>id</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>类型</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>描述</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>基础价格，会根据当天倍率进行浮动</t>
@@ -101,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -124,7 +113,13 @@
     <t>基础建筑材料</t>
   </si>
   <si>
+    <t>石砖</t>
+  </si>
+  <si>
     <t>进阶建筑材料</t>
+  </si>
+  <si>
+    <t>铁</t>
   </si>
   <si>
     <t>粮食</t>
@@ -132,16 +127,18 @@
   <si>
     <t>石头</t>
   </si>
-  <si>
-    <t>石砖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,34 +150,355 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,9 +506,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -202,31 +762,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Price"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="8" name="Content"/>
+    <tableColumn id="4" name="Price"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,26 +1088,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -537,63 +1141,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="B5" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -138,14 +138,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,33 +617,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,97 +656,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -758,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,7 +1090,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1138,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1155,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1172,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1189,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1206,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -107,25 +107,43 @@
     <t>Price</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
     <t>木头</t>
   </si>
   <si>
     <t>基础建筑材料</t>
   </si>
   <si>
+    <t>wood</t>
+  </si>
+  <si>
     <t>石砖</t>
   </si>
   <si>
     <t>进阶建筑材料</t>
   </si>
   <si>
+    <t>brick</t>
+  </si>
+  <si>
     <t>铁</t>
   </si>
   <si>
+    <t>iron</t>
+  </si>
+  <si>
     <t>粮食</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>石头</t>
+  </si>
+  <si>
+    <t>stone</t>
   </si>
 </sst>
 </file>
@@ -816,14 +834,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="8" name="Content"/>
     <tableColumn id="4" name="Price"/>
+    <tableColumn id="5" name="IconName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1087,20 +1106,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,90 +1135,108 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C243201-305C-480E-ADE4-9167C5D2F86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3061D-83CB-470B-A192-ADD3D327CE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1572" yWindow="2832" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanSell</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -260,15 +264,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Price"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IconName"/>
+    <tableColumn id="6" xr3:uid="{8BFC16B6-EE56-465F-BC03-D4B40D322183}" name="CanSell"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,7 +550,7 @@
     <col min="4" max="4" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +569,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -584,8 +592,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -604,8 +615,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -624,8 +638,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -644,8 +661,11 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -664,8 +684,11 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>101</v>
       </c>
@@ -684,8 +707,11 @@
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>102</v>
       </c>
@@ -704,8 +730,11 @@
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>103</v>
       </c>
@@ -723,6 +752,9 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3061D-83CB-470B-A192-ADD3D327CE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F110E-7226-4C9E-967F-0B400DFAA1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="2832" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2772" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BagItem" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -174,11 +174,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
+    <t>CanSell</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CanSell</t>
+    <t>ticket</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -264,8 +264,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,55 +705,9 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>102</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>103</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F110E-7226-4C9E-967F-0B400DFAA1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BA544-7630-461E-8ACD-F3D36648294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2772" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7632" yWindow="2892" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BagItem" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>

--- a/Assets/Configs/RawTable/BagItem.xlsx
+++ b/Assets/Configs/RawTable/BagItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BA544-7630-461E-8ACD-F3D36648294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2699AC1E-0A32-4C96-A7B1-22CC0FD4CC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7632" yWindow="2892" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4716" yWindow="2892" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BagItem" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以升级官府</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -699,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
